--- a/ThreatModel.xlsx
+++ b/ThreatModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leaka\Desktop\GIT\Staff-Mate\payment-service-provider-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4AA85A-231B-4D66-B86C-733810042166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7867B63B-4C85-452D-975D-95D3FF286457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{838CC722-FB16-49BE-98DE-A8C64DF66468}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{838CC722-FB16-49BE-98DE-A8C64DF66468}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="196">
   <si>
     <t>Application Version:</t>
   </si>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t>Aleksandar Bjelobaba, Lidija Suvajdžić, Natalija Šašić, Lea Kalmar</t>
+  </si>
+  <si>
+    <t>The backend is built using Spring  framework 3.0.1 with Java 1.8</t>
   </si>
 </sst>
 </file>
@@ -1454,6 +1457,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1469,13 +1475,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,35 +1535,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1526,20 +1553,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1553,23 +1577,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1589,65 +1601,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1657,6 +1612,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1682,8 +1640,53 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10336,7 +10339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4318B8E-2FE0-47B2-81D4-5355C599DD24}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -10347,10 +10350,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -10361,32 +10364,32 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="73"/>
     </row>
     <row r="8" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="74"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -10419,8 +10422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4134817-83F8-4F89-9129-D5BAEFE5094C}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" topLeftCell="L19" zoomScale="85" zoomScaleNormal="55" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31:P31"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="Q16" zoomScale="85" zoomScaleNormal="55" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28:V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10448,62 +10451,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="36"/>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76"/>
-      <c r="N1" s="74" t="s">
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="N1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="76"/>
-      <c r="T1" s="105" t="s">
+      <c r="O1" s="96"/>
+      <c r="P1" s="97"/>
+      <c r="T1" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="36"/>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
       <c r="H2" s="25"/>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
-      <c r="N2" s="74" t="s">
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+      <c r="N2" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-      <c r="T2" s="105" t="s">
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="T2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -10558,209 +10561,209 @@
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="36"/>
       <c r="E4" s="20">
         <v>1</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="25"/>
       <c r="I4" s="20">
         <v>1</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="89"/>
       <c r="N4" s="20">
         <v>1</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="83"/>
+      <c r="P4" s="89"/>
       <c r="T4" s="20">
         <v>1</v>
       </c>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="83"/>
+      <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="84" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="36"/>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="84" t="s">
         <v>99</v>
       </c>
       <c r="H5" s="25"/>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="96" t="s">
+      <c r="K5" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="N5" s="94" t="s">
+      <c r="N5" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="96" t="s">
+      <c r="O5" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="P5" s="96" t="s">
+      <c r="P5" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="T5" s="94" t="s">
+      <c r="T5" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="96" t="s">
+      <c r="U5" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="96" t="s">
+      <c r="V5" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="97"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="36"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="84" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="36"/>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="84" t="s">
         <v>100</v>
       </c>
       <c r="H7" s="25"/>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="96" t="s">
+      <c r="J7" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="96" t="s">
+      <c r="K7" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="103"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="T7" s="94" t="s">
+      <c r="N7" s="82"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="T7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="96" t="s">
+      <c r="U7" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="V7" s="96" t="s">
+      <c r="V7" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="99"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="36"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="97"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="81"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="36"/>
       <c r="E9" s="19">
         <v>2</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="81"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="25"/>
       <c r="I9" s="19">
         <v>2</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="81"/>
+      <c r="K9" s="91"/>
       <c r="N9" s="19">
         <v>2</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="81"/>
+      <c r="P9" s="91"/>
       <c r="T9" s="19">
         <v>2</v>
       </c>
-      <c r="U9" s="80" t="s">
+      <c r="U9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="V9" s="81"/>
+      <c r="V9" s="91"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -10913,40 +10916,40 @@
       <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="81"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="36"/>
       <c r="E13" s="19">
         <v>3</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="81"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="25"/>
       <c r="I13" s="19">
         <v>3</v>
       </c>
-      <c r="J13" s="80" t="s">
+      <c r="J13" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="81"/>
+      <c r="K13" s="91"/>
       <c r="N13" s="19">
         <v>3</v>
       </c>
-      <c r="O13" s="80" t="s">
+      <c r="O13" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="81"/>
+      <c r="P13" s="91"/>
       <c r="T13" s="19">
         <v>3</v>
       </c>
-      <c r="U13" s="80" t="s">
+      <c r="U13" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="V13" s="81"/>
+      <c r="V13" s="91"/>
     </row>
     <row r="14" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
@@ -11101,33 +11104,33 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="77" t="s">
+      <c r="I17" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
-      <c r="N17" s="77" t="s">
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
+      <c r="N17" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="78"/>
-      <c r="P17" s="79"/>
-      <c r="T17" s="77" t="s">
+      <c r="O17" s="93"/>
+      <c r="P17" s="94"/>
+      <c r="T17" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="U17" s="78"/>
-      <c r="V17" s="79"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="94"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -11331,384 +11334,384 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="76"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="76"/>
-      <c r="N22" s="74" t="s">
+      <c r="J22" s="96"/>
+      <c r="K22" s="97"/>
+      <c r="N22" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="75"/>
-      <c r="P22" s="76"/>
-      <c r="T22" s="74" t="s">
+      <c r="O22" s="96"/>
+      <c r="P22" s="97"/>
+      <c r="T22" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="U22" s="75"/>
-      <c r="V22" s="76"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="97"/>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="36"/>
       <c r="E23" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="76"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="25"/>
       <c r="I23" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="74" t="s">
+      <c r="J23" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="76"/>
+      <c r="K23" s="97"/>
       <c r="N23" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="74" t="s">
+      <c r="O23" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="P23" s="76"/>
+      <c r="P23" s="97"/>
       <c r="T23" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U23" s="74" t="s">
+      <c r="U23" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="V23" s="76"/>
+      <c r="V23" s="97"/>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>1</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="91"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="36"/>
       <c r="E24" s="30">
         <v>1</v>
       </c>
-      <c r="F24" s="90" t="s">
+      <c r="F24" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="91"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="25"/>
       <c r="I24" s="30">
         <v>1</v>
       </c>
-      <c r="J24" s="90" t="s">
+      <c r="J24" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="91"/>
+      <c r="K24" s="99"/>
       <c r="N24" s="30">
         <v>1</v>
       </c>
-      <c r="O24" s="90" t="s">
+      <c r="O24" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="91"/>
+      <c r="P24" s="99"/>
       <c r="T24" s="30">
         <v>1</v>
       </c>
-      <c r="U24" s="90" t="s">
+      <c r="U24" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="91"/>
+      <c r="V24" s="99"/>
     </row>
     <row r="25" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="36"/>
       <c r="E25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="92" t="s">
+      <c r="F25" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="93"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="25"/>
       <c r="I25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="92" t="s">
+      <c r="J25" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="K25" s="93"/>
+      <c r="K25" s="104"/>
       <c r="N25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="O25" s="92" t="s">
+      <c r="O25" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="93"/>
+      <c r="P25" s="104"/>
       <c r="T25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="U25" s="92" t="s">
+      <c r="U25" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="V25" s="106"/>
+      <c r="V25" s="101"/>
     </row>
     <row r="26" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="93"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="36"/>
       <c r="E26" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="92" t="s">
+      <c r="F26" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="93"/>
+      <c r="G26" s="104"/>
       <c r="H26" s="25"/>
       <c r="I26" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="92" t="s">
+      <c r="J26" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="K26" s="93"/>
+      <c r="K26" s="104"/>
       <c r="N26" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O26" s="92" t="s">
+      <c r="O26" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="P26" s="93"/>
+      <c r="P26" s="104"/>
       <c r="T26" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="U26" s="92" t="s">
+      <c r="U26" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="V26" s="106"/>
+      <c r="V26" s="101"/>
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>2</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="91"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="36"/>
       <c r="E27" s="30">
         <v>2</v>
       </c>
-      <c r="F27" s="90" t="s">
+      <c r="F27" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="91"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="25"/>
       <c r="I27" s="30">
         <v>2</v>
       </c>
-      <c r="J27" s="90" t="s">
+      <c r="J27" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="K27" s="91"/>
+      <c r="K27" s="99"/>
       <c r="N27" s="30">
         <v>2</v>
       </c>
-      <c r="O27" s="90" t="s">
+      <c r="O27" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="91"/>
+      <c r="P27" s="99"/>
       <c r="T27" s="30">
         <v>2</v>
       </c>
-      <c r="U27" s="90" t="s">
+      <c r="U27" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="91"/>
+      <c r="V27" s="99"/>
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="89"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="36"/>
       <c r="E28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="88" t="s">
+      <c r="F28" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="89"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="25"/>
       <c r="I28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="88" t="s">
+      <c r="J28" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="K28" s="89"/>
+      <c r="K28" s="103"/>
       <c r="N28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="88" t="s">
+      <c r="O28" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="P28" s="89"/>
+      <c r="P28" s="103"/>
       <c r="T28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="V28" s="107"/>
+      <c r="U28" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="V28" s="76"/>
     </row>
     <row r="29" spans="1:22" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="89"/>
+      <c r="C29" s="103"/>
       <c r="D29" s="36"/>
       <c r="E29" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="88" t="s">
+      <c r="F29" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="89"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="25"/>
       <c r="I29" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="88" t="s">
+      <c r="J29" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="K29" s="89"/>
+      <c r="K29" s="103"/>
       <c r="N29" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="88" t="s">
+      <c r="O29" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="P29" s="89"/>
+      <c r="P29" s="103"/>
       <c r="T29" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="U29" s="88" t="s">
+      <c r="U29" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="V29" s="107"/>
+      <c r="V29" s="76"/>
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="87"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="46"/>
       <c r="E30" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="86" t="s">
+      <c r="F30" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="87"/>
+      <c r="G30" s="78"/>
       <c r="H30" s="47"/>
       <c r="I30" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="86" t="s">
+      <c r="J30" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="K30" s="87"/>
+      <c r="K30" s="78"/>
       <c r="N30" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O30" s="86" t="s">
+      <c r="O30" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="P30" s="87"/>
+      <c r="P30" s="78"/>
       <c r="T30" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="U30" s="86" t="s">
+      <c r="U30" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="V30" s="87"/>
+      <c r="V30" s="78"/>
     </row>
     <row r="31" spans="1:22" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="85"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="48"/>
       <c r="E31" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="85"/>
+      <c r="G31" s="102"/>
       <c r="H31" s="47"/>
       <c r="I31" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="84" t="s">
+      <c r="J31" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="85"/>
+      <c r="K31" s="102"/>
       <c r="N31" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="O31" s="84" t="s">
+      <c r="O31" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="P31" s="85"/>
+      <c r="P31" s="102"/>
       <c r="T31" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="U31" s="84" t="s">
+      <c r="U31" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="V31" s="102"/>
+      <c r="V31" s="80"/>
     </row>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11733,6 +11736,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="U29:V29"/>
     <mergeCell ref="U30:V30"/>
     <mergeCell ref="U31:V31"/>
@@ -11757,89 +11843,6 @@
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="U26:V26"/>
     <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O23:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
@@ -11871,21 +11874,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
       <c r="N1" s="41"/>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
@@ -11901,19 +11904,19 @@
       <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="41"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
@@ -11929,19 +11932,19 @@
       <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
       <c r="N3" s="41"/>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
@@ -11957,19 +11960,19 @@
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
       <c r="N4" s="41"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
@@ -11985,19 +11988,19 @@
       <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
       <c r="N5" s="41"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
@@ -12013,19 +12016,19 @@
       <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
       <c r="N6" s="41"/>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
@@ -12041,19 +12044,19 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
       <c r="N7" s="41"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -12069,19 +12072,19 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
       <c r="N8" s="41"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
@@ -12097,19 +12100,19 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
       <c r="N9" s="41"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
@@ -12125,19 +12128,19 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
       <c r="N10" s="41"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
@@ -12153,19 +12156,19 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
       <c r="N11" s="41"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
@@ -12181,19 +12184,19 @@
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
       <c r="N12" s="41"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
@@ -12209,19 +12212,19 @@
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
       <c r="N13" s="41"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
@@ -12237,19 +12240,19 @@
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
       <c r="N14" s="41"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
@@ -12265,19 +12268,19 @@
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
       <c r="N15" s="41"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
@@ -12293,19 +12296,19 @@
       <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
       <c r="N16" s="41"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
@@ -12321,19 +12324,19 @@
       <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
       <c r="N17" s="41"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
@@ -12349,19 +12352,19 @@
       <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
       <c r="N18" s="41"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
@@ -12377,19 +12380,19 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
       <c r="N19" s="41"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
@@ -12405,19 +12408,19 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
       <c r="N20" s="42"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
@@ -12433,1458 +12436,1453 @@
       <c r="Z20" s="43"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="110"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="113"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="110"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="113"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="110"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="113"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="110"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="113"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="110"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="113"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="110"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="113"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="110"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="113"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="110"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="113"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="110"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="113"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="110"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="113"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="110"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="113"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="110"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="113"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="110"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="113"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="110"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="113"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="110"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="112"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="113"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="110"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="112"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="113"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="110"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="113"/>
     </row>
     <row r="39" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="111"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="113"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="116"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="114" t="s">
+      <c r="A40" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="110"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="113"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="110"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="113"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="110"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="112"/>
+      <c r="K43" s="112"/>
+      <c r="L43" s="112"/>
+      <c r="M43" s="113"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="109"/>
-      <c r="K44" s="109"/>
-      <c r="L44" s="109"/>
-      <c r="M44" s="110"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="112"/>
+      <c r="M44" s="113"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="109"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="110"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="113"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
-      <c r="B46" s="109"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="110"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="112"/>
+      <c r="L46" s="112"/>
+      <c r="M46" s="113"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="109"/>
-      <c r="L47" s="109"/>
-      <c r="M47" s="110"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="113"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
-      <c r="B48" s="109"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="109"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="110"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="113"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="109"/>
-      <c r="K49" s="109"/>
-      <c r="L49" s="109"/>
-      <c r="M49" s="110"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="113"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="108"/>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="110"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="112"/>
+      <c r="M50" s="113"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="109"/>
-      <c r="K51" s="109"/>
-      <c r="L51" s="109"/>
-      <c r="M51" s="110"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="112"/>
+      <c r="K51" s="112"/>
+      <c r="L51" s="112"/>
+      <c r="M51" s="113"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
-      <c r="K52" s="109"/>
-      <c r="L52" s="109"/>
-      <c r="M52" s="110"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="112"/>
+      <c r="K52" s="112"/>
+      <c r="L52" s="112"/>
+      <c r="M52" s="113"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="109"/>
-      <c r="L53" s="109"/>
-      <c r="M53" s="110"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="112"/>
+      <c r="K53" s="112"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="113"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="109"/>
-      <c r="L54" s="109"/>
-      <c r="M54" s="110"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="112"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="112"/>
+      <c r="M54" s="113"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="B55" s="109"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="109"/>
-      <c r="L55" s="109"/>
-      <c r="M55" s="110"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="112"/>
+      <c r="J55" s="112"/>
+      <c r="K55" s="112"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="113"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
-      <c r="B56" s="109"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="109"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="109"/>
-      <c r="M56" s="110"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="112"/>
+      <c r="L56" s="112"/>
+      <c r="M56" s="113"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
-      <c r="B57" s="109"/>
-      <c r="C57" s="109"/>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="109"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="109"/>
-      <c r="K57" s="109"/>
-      <c r="L57" s="109"/>
-      <c r="M57" s="110"/>
+      <c r="A57" s="111"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="112"/>
+      <c r="K57" s="112"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="113"/>
     </row>
     <row r="58" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="111"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="112"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="112"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
-      <c r="K58" s="112"/>
-      <c r="L58" s="112"/>
-      <c r="M58" s="113"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="115"/>
+      <c r="L58" s="115"/>
+      <c r="M58" s="116"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="114" t="s">
+      <c r="A59" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="114"/>
-      <c r="M59" s="114"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="110"/>
+      <c r="K59" s="110"/>
+      <c r="L59" s="110"/>
+      <c r="M59" s="110"/>
       <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
-      <c r="B60" s="109"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="109"/>
-      <c r="K60" s="109"/>
-      <c r="L60" s="109"/>
-      <c r="M60" s="110"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="112"/>
+      <c r="K60" s="112"/>
+      <c r="L60" s="112"/>
+      <c r="M60" s="113"/>
       <c r="N60" s="12"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
-      <c r="B61" s="109"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="109"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="109"/>
-      <c r="J61" s="109"/>
-      <c r="K61" s="109"/>
-      <c r="L61" s="109"/>
-      <c r="M61" s="110"/>
+      <c r="A61" s="111"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="112"/>
+      <c r="J61" s="112"/>
+      <c r="K61" s="112"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="113"/>
       <c r="N61" s="12"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
-      <c r="B62" s="109"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="109"/>
-      <c r="H62" s="109"/>
-      <c r="I62" s="109"/>
-      <c r="J62" s="109"/>
-      <c r="K62" s="109"/>
-      <c r="L62" s="109"/>
-      <c r="M62" s="110"/>
+      <c r="A62" s="111"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="112"/>
+      <c r="I62" s="112"/>
+      <c r="J62" s="112"/>
+      <c r="K62" s="112"/>
+      <c r="L62" s="112"/>
+      <c r="M62" s="113"/>
       <c r="N62" s="12"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="109"/>
-      <c r="H63" s="109"/>
-      <c r="I63" s="109"/>
-      <c r="J63" s="109"/>
-      <c r="K63" s="109"/>
-      <c r="L63" s="109"/>
-      <c r="M63" s="110"/>
+      <c r="A63" s="111"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="112"/>
+      <c r="H63" s="112"/>
+      <c r="I63" s="112"/>
+      <c r="J63" s="112"/>
+      <c r="K63" s="112"/>
+      <c r="L63" s="112"/>
+      <c r="M63" s="113"/>
       <c r="N63" s="12"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
-      <c r="B64" s="109"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="109"/>
-      <c r="H64" s="109"/>
-      <c r="I64" s="109"/>
-      <c r="J64" s="109"/>
-      <c r="K64" s="109"/>
-      <c r="L64" s="109"/>
-      <c r="M64" s="110"/>
+      <c r="A64" s="111"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="112"/>
+      <c r="H64" s="112"/>
+      <c r="I64" s="112"/>
+      <c r="J64" s="112"/>
+      <c r="K64" s="112"/>
+      <c r="L64" s="112"/>
+      <c r="M64" s="113"/>
       <c r="N64" s="12"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
-      <c r="B65" s="109"/>
-      <c r="C65" s="109"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="109"/>
-      <c r="H65" s="109"/>
-      <c r="I65" s="109"/>
-      <c r="J65" s="109"/>
-      <c r="K65" s="109"/>
-      <c r="L65" s="109"/>
-      <c r="M65" s="110"/>
+      <c r="A65" s="111"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="112"/>
+      <c r="K65" s="112"/>
+      <c r="L65" s="112"/>
+      <c r="M65" s="113"/>
       <c r="N65" s="12"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="108"/>
-      <c r="B66" s="109"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="109"/>
-      <c r="K66" s="109"/>
-      <c r="L66" s="109"/>
-      <c r="M66" s="110"/>
+      <c r="A66" s="111"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="112"/>
+      <c r="K66" s="112"/>
+      <c r="L66" s="112"/>
+      <c r="M66" s="113"/>
       <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
-      <c r="B67" s="109"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="109"/>
-      <c r="H67" s="109"/>
-      <c r="I67" s="109"/>
-      <c r="J67" s="109"/>
-      <c r="K67" s="109"/>
-      <c r="L67" s="109"/>
-      <c r="M67" s="110"/>
+      <c r="A67" s="111"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="112"/>
+      <c r="K67" s="112"/>
+      <c r="L67" s="112"/>
+      <c r="M67" s="113"/>
       <c r="N67" s="12"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
-      <c r="B68" s="109"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="109"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="109"/>
-      <c r="G68" s="109"/>
-      <c r="H68" s="109"/>
-      <c r="I68" s="109"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="109"/>
-      <c r="L68" s="109"/>
-      <c r="M68" s="110"/>
+      <c r="A68" s="111"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="112"/>
+      <c r="H68" s="112"/>
+      <c r="I68" s="112"/>
+      <c r="J68" s="112"/>
+      <c r="K68" s="112"/>
+      <c r="L68" s="112"/>
+      <c r="M68" s="113"/>
       <c r="N68" s="12"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="109"/>
-      <c r="J69" s="109"/>
-      <c r="K69" s="109"/>
-      <c r="L69" s="109"/>
-      <c r="M69" s="110"/>
+      <c r="A69" s="111"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="112"/>
+      <c r="G69" s="112"/>
+      <c r="H69" s="112"/>
+      <c r="I69" s="112"/>
+      <c r="J69" s="112"/>
+      <c r="K69" s="112"/>
+      <c r="L69" s="112"/>
+      <c r="M69" s="113"/>
       <c r="N69" s="12"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
-      <c r="B70" s="109"/>
-      <c r="C70" s="109"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="109"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="109"/>
-      <c r="L70" s="109"/>
-      <c r="M70" s="110"/>
+      <c r="A70" s="111"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="112"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="112"/>
+      <c r="K70" s="112"/>
+      <c r="L70" s="112"/>
+      <c r="M70" s="113"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
-      <c r="B71" s="109"/>
-      <c r="C71" s="109"/>
-      <c r="D71" s="109"/>
-      <c r="E71" s="109"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="109"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="109"/>
-      <c r="J71" s="109"/>
-      <c r="K71" s="109"/>
-      <c r="L71" s="109"/>
-      <c r="M71" s="110"/>
+      <c r="A71" s="111"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
+      <c r="G71" s="112"/>
+      <c r="H71" s="112"/>
+      <c r="I71" s="112"/>
+      <c r="J71" s="112"/>
+      <c r="K71" s="112"/>
+      <c r="L71" s="112"/>
+      <c r="M71" s="113"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
-      <c r="B72" s="109"/>
-      <c r="C72" s="109"/>
-      <c r="D72" s="109"/>
-      <c r="E72" s="109"/>
-      <c r="F72" s="109"/>
-      <c r="G72" s="109"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="109"/>
-      <c r="J72" s="109"/>
-      <c r="K72" s="109"/>
-      <c r="L72" s="109"/>
-      <c r="M72" s="110"/>
+      <c r="A72" s="111"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="112"/>
+      <c r="D72" s="112"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="112"/>
+      <c r="G72" s="112"/>
+      <c r="H72" s="112"/>
+      <c r="I72" s="112"/>
+      <c r="J72" s="112"/>
+      <c r="K72" s="112"/>
+      <c r="L72" s="112"/>
+      <c r="M72" s="113"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
-      <c r="B73" s="109"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="109"/>
-      <c r="G73" s="109"/>
-      <c r="H73" s="109"/>
-      <c r="I73" s="109"/>
-      <c r="J73" s="109"/>
-      <c r="K73" s="109"/>
-      <c r="L73" s="109"/>
-      <c r="M73" s="110"/>
+      <c r="A73" s="111"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="112"/>
+      <c r="E73" s="112"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="112"/>
+      <c r="H73" s="112"/>
+      <c r="I73" s="112"/>
+      <c r="J73" s="112"/>
+      <c r="K73" s="112"/>
+      <c r="L73" s="112"/>
+      <c r="M73" s="113"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
-      <c r="B74" s="109"/>
-      <c r="C74" s="109"/>
-      <c r="D74" s="109"/>
-      <c r="E74" s="109"/>
-      <c r="F74" s="109"/>
-      <c r="G74" s="109"/>
-      <c r="H74" s="109"/>
-      <c r="I74" s="109"/>
-      <c r="J74" s="109"/>
-      <c r="K74" s="109"/>
-      <c r="L74" s="109"/>
-      <c r="M74" s="110"/>
+      <c r="A74" s="111"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="112"/>
+      <c r="H74" s="112"/>
+      <c r="I74" s="112"/>
+      <c r="J74" s="112"/>
+      <c r="K74" s="112"/>
+      <c r="L74" s="112"/>
+      <c r="M74" s="113"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
-      <c r="B75" s="109"/>
-      <c r="C75" s="109"/>
-      <c r="D75" s="109"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="109"/>
-      <c r="G75" s="109"/>
-      <c r="H75" s="109"/>
-      <c r="I75" s="109"/>
-      <c r="J75" s="109"/>
-      <c r="K75" s="109"/>
-      <c r="L75" s="109"/>
-      <c r="M75" s="110"/>
+      <c r="A75" s="111"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="112"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="112"/>
+      <c r="G75" s="112"/>
+      <c r="H75" s="112"/>
+      <c r="I75" s="112"/>
+      <c r="J75" s="112"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="112"/>
+      <c r="M75" s="113"/>
     </row>
     <row r="76" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
-      <c r="B76" s="109"/>
-      <c r="C76" s="109"/>
-      <c r="D76" s="109"/>
-      <c r="E76" s="109"/>
-      <c r="F76" s="109"/>
-      <c r="G76" s="109"/>
-      <c r="H76" s="109"/>
-      <c r="I76" s="109"/>
-      <c r="J76" s="109"/>
-      <c r="K76" s="109"/>
-      <c r="L76" s="109"/>
-      <c r="M76" s="110"/>
+      <c r="A76" s="111"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="112"/>
+      <c r="G76" s="112"/>
+      <c r="H76" s="112"/>
+      <c r="I76" s="112"/>
+      <c r="J76" s="112"/>
+      <c r="K76" s="112"/>
+      <c r="L76" s="112"/>
+      <c r="M76" s="113"/>
     </row>
     <row r="77" spans="1:14" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="111"/>
-      <c r="B77" s="112"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="112"/>
-      <c r="J77" s="112"/>
-      <c r="K77" s="112"/>
-      <c r="L77" s="112"/>
-      <c r="M77" s="113"/>
+      <c r="A77" s="114"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="115"/>
+      <c r="G77" s="115"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="115"/>
+      <c r="L77" s="115"/>
+      <c r="M77" s="116"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="114" t="s">
+      <c r="A78" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="114"/>
-      <c r="D78" s="114"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="110"/>
+      <c r="G78" s="110"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="110"/>
+      <c r="K78" s="110"/>
+      <c r="L78" s="110"/>
+      <c r="M78" s="110"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="108"/>
-      <c r="B79" s="109"/>
-      <c r="C79" s="109"/>
-      <c r="D79" s="109"/>
-      <c r="E79" s="109"/>
-      <c r="F79" s="109"/>
-      <c r="G79" s="109"/>
-      <c r="H79" s="109"/>
-      <c r="I79" s="109"/>
-      <c r="J79" s="109"/>
-      <c r="K79" s="109"/>
-      <c r="L79" s="109"/>
-      <c r="M79" s="110"/>
+      <c r="A79" s="111"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="112"/>
+      <c r="E79" s="112"/>
+      <c r="F79" s="112"/>
+      <c r="G79" s="112"/>
+      <c r="H79" s="112"/>
+      <c r="I79" s="112"/>
+      <c r="J79" s="112"/>
+      <c r="K79" s="112"/>
+      <c r="L79" s="112"/>
+      <c r="M79" s="113"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="108"/>
-      <c r="B80" s="109"/>
-      <c r="C80" s="109"/>
-      <c r="D80" s="109"/>
-      <c r="E80" s="109"/>
-      <c r="F80" s="109"/>
-      <c r="G80" s="109"/>
-      <c r="H80" s="109"/>
-      <c r="I80" s="109"/>
-      <c r="J80" s="109"/>
-      <c r="K80" s="109"/>
-      <c r="L80" s="109"/>
-      <c r="M80" s="110"/>
+      <c r="A80" s="111"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="112"/>
+      <c r="F80" s="112"/>
+      <c r="G80" s="112"/>
+      <c r="H80" s="112"/>
+      <c r="I80" s="112"/>
+      <c r="J80" s="112"/>
+      <c r="K80" s="112"/>
+      <c r="L80" s="112"/>
+      <c r="M80" s="113"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
-      <c r="B81" s="109"/>
-      <c r="C81" s="109"/>
-      <c r="D81" s="109"/>
-      <c r="E81" s="109"/>
-      <c r="F81" s="109"/>
-      <c r="G81" s="109"/>
-      <c r="H81" s="109"/>
-      <c r="I81" s="109"/>
-      <c r="J81" s="109"/>
-      <c r="K81" s="109"/>
-      <c r="L81" s="109"/>
-      <c r="M81" s="110"/>
+      <c r="A81" s="111"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="112"/>
+      <c r="E81" s="112"/>
+      <c r="F81" s="112"/>
+      <c r="G81" s="112"/>
+      <c r="H81" s="112"/>
+      <c r="I81" s="112"/>
+      <c r="J81" s="112"/>
+      <c r="K81" s="112"/>
+      <c r="L81" s="112"/>
+      <c r="M81" s="113"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="108"/>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
-      <c r="G82" s="109"/>
-      <c r="H82" s="109"/>
-      <c r="I82" s="109"/>
-      <c r="J82" s="109"/>
-      <c r="K82" s="109"/>
-      <c r="L82" s="109"/>
-      <c r="M82" s="110"/>
+      <c r="A82" s="111"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="112"/>
+      <c r="E82" s="112"/>
+      <c r="F82" s="112"/>
+      <c r="G82" s="112"/>
+      <c r="H82" s="112"/>
+      <c r="I82" s="112"/>
+      <c r="J82" s="112"/>
+      <c r="K82" s="112"/>
+      <c r="L82" s="112"/>
+      <c r="M82" s="113"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="108"/>
-      <c r="B83" s="109"/>
-      <c r="C83" s="109"/>
-      <c r="D83" s="109"/>
-      <c r="E83" s="109"/>
-      <c r="F83" s="109"/>
-      <c r="G83" s="109"/>
-      <c r="H83" s="109"/>
-      <c r="I83" s="109"/>
-      <c r="J83" s="109"/>
-      <c r="K83" s="109"/>
-      <c r="L83" s="109"/>
-      <c r="M83" s="110"/>
+      <c r="A83" s="111"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="112"/>
+      <c r="H83" s="112"/>
+      <c r="I83" s="112"/>
+      <c r="J83" s="112"/>
+      <c r="K83" s="112"/>
+      <c r="L83" s="112"/>
+      <c r="M83" s="113"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="108"/>
-      <c r="B84" s="109"/>
-      <c r="C84" s="109"/>
-      <c r="D84" s="109"/>
-      <c r="E84" s="109"/>
-      <c r="F84" s="109"/>
-      <c r="G84" s="109"/>
-      <c r="H84" s="109"/>
-      <c r="I84" s="109"/>
-      <c r="J84" s="109"/>
-      <c r="K84" s="109"/>
-      <c r="L84" s="109"/>
-      <c r="M84" s="110"/>
+      <c r="A84" s="111"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="112"/>
+      <c r="F84" s="112"/>
+      <c r="G84" s="112"/>
+      <c r="H84" s="112"/>
+      <c r="I84" s="112"/>
+      <c r="J84" s="112"/>
+      <c r="K84" s="112"/>
+      <c r="L84" s="112"/>
+      <c r="M84" s="113"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
-      <c r="B85" s="109"/>
-      <c r="C85" s="109"/>
-      <c r="D85" s="109"/>
-      <c r="E85" s="109"/>
-      <c r="F85" s="109"/>
-      <c r="G85" s="109"/>
-      <c r="H85" s="109"/>
-      <c r="I85" s="109"/>
-      <c r="J85" s="109"/>
-      <c r="K85" s="109"/>
-      <c r="L85" s="109"/>
-      <c r="M85" s="110"/>
+      <c r="A85" s="111"/>
+      <c r="B85" s="112"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="112"/>
+      <c r="E85" s="112"/>
+      <c r="F85" s="112"/>
+      <c r="G85" s="112"/>
+      <c r="H85" s="112"/>
+      <c r="I85" s="112"/>
+      <c r="J85" s="112"/>
+      <c r="K85" s="112"/>
+      <c r="L85" s="112"/>
+      <c r="M85" s="113"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
-      <c r="B86" s="109"/>
-      <c r="C86" s="109"/>
-      <c r="D86" s="109"/>
-      <c r="E86" s="109"/>
-      <c r="F86" s="109"/>
-      <c r="G86" s="109"/>
-      <c r="H86" s="109"/>
-      <c r="I86" s="109"/>
-      <c r="J86" s="109"/>
-      <c r="K86" s="109"/>
-      <c r="L86" s="109"/>
-      <c r="M86" s="110"/>
+      <c r="A86" s="111"/>
+      <c r="B86" s="112"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="112"/>
+      <c r="G86" s="112"/>
+      <c r="H86" s="112"/>
+      <c r="I86" s="112"/>
+      <c r="J86" s="112"/>
+      <c r="K86" s="112"/>
+      <c r="L86" s="112"/>
+      <c r="M86" s="113"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="108"/>
-      <c r="B87" s="109"/>
-      <c r="C87" s="109"/>
-      <c r="D87" s="109"/>
-      <c r="E87" s="109"/>
-      <c r="F87" s="109"/>
-      <c r="G87" s="109"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="109"/>
-      <c r="J87" s="109"/>
-      <c r="K87" s="109"/>
-      <c r="L87" s="109"/>
-      <c r="M87" s="110"/>
+      <c r="A87" s="111"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="112"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="113"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="108"/>
-      <c r="B88" s="109"/>
-      <c r="C88" s="109"/>
-      <c r="D88" s="109"/>
-      <c r="E88" s="109"/>
-      <c r="F88" s="109"/>
-      <c r="G88" s="109"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="109"/>
-      <c r="J88" s="109"/>
-      <c r="K88" s="109"/>
-      <c r="L88" s="109"/>
-      <c r="M88" s="110"/>
+      <c r="A88" s="111"/>
+      <c r="B88" s="112"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
+      <c r="G88" s="112"/>
+      <c r="H88" s="112"/>
+      <c r="I88" s="112"/>
+      <c r="J88" s="112"/>
+      <c r="K88" s="112"/>
+      <c r="L88" s="112"/>
+      <c r="M88" s="113"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="108"/>
-      <c r="B89" s="109"/>
-      <c r="C89" s="109"/>
-      <c r="D89" s="109"/>
-      <c r="E89" s="109"/>
-      <c r="F89" s="109"/>
-      <c r="G89" s="109"/>
-      <c r="H89" s="109"/>
-      <c r="I89" s="109"/>
-      <c r="J89" s="109"/>
-      <c r="K89" s="109"/>
-      <c r="L89" s="109"/>
-      <c r="M89" s="110"/>
+      <c r="A89" s="111"/>
+      <c r="B89" s="112"/>
+      <c r="C89" s="112"/>
+      <c r="D89" s="112"/>
+      <c r="E89" s="112"/>
+      <c r="F89" s="112"/>
+      <c r="G89" s="112"/>
+      <c r="H89" s="112"/>
+      <c r="I89" s="112"/>
+      <c r="J89" s="112"/>
+      <c r="K89" s="112"/>
+      <c r="L89" s="112"/>
+      <c r="M89" s="113"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="108"/>
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="109"/>
-      <c r="F90" s="109"/>
-      <c r="G90" s="109"/>
-      <c r="H90" s="109"/>
-      <c r="I90" s="109"/>
-      <c r="J90" s="109"/>
-      <c r="K90" s="109"/>
-      <c r="L90" s="109"/>
-      <c r="M90" s="110"/>
+      <c r="A90" s="111"/>
+      <c r="B90" s="112"/>
+      <c r="C90" s="112"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="112"/>
+      <c r="L90" s="112"/>
+      <c r="M90" s="113"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
-      <c r="G91" s="109"/>
-      <c r="H91" s="109"/>
-      <c r="I91" s="109"/>
-      <c r="J91" s="109"/>
-      <c r="K91" s="109"/>
-      <c r="L91" s="109"/>
-      <c r="M91" s="110"/>
+      <c r="A91" s="111"/>
+      <c r="B91" s="112"/>
+      <c r="C91" s="112"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="112"/>
+      <c r="G91" s="112"/>
+      <c r="H91" s="112"/>
+      <c r="I91" s="112"/>
+      <c r="J91" s="112"/>
+      <c r="K91" s="112"/>
+      <c r="L91" s="112"/>
+      <c r="M91" s="113"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="108"/>
-      <c r="B92" s="109"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="109"/>
-      <c r="G92" s="109"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="109"/>
-      <c r="J92" s="109"/>
-      <c r="K92" s="109"/>
-      <c r="L92" s="109"/>
-      <c r="M92" s="110"/>
+      <c r="A92" s="111"/>
+      <c r="B92" s="112"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="112"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="112"/>
+      <c r="G92" s="112"/>
+      <c r="H92" s="112"/>
+      <c r="I92" s="112"/>
+      <c r="J92" s="112"/>
+      <c r="K92" s="112"/>
+      <c r="L92" s="112"/>
+      <c r="M92" s="113"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="108"/>
-      <c r="B93" s="109"/>
-      <c r="C93" s="109"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="109"/>
-      <c r="F93" s="109"/>
-      <c r="G93" s="109"/>
-      <c r="H93" s="109"/>
-      <c r="I93" s="109"/>
-      <c r="J93" s="109"/>
-      <c r="K93" s="109"/>
-      <c r="L93" s="109"/>
-      <c r="M93" s="110"/>
+      <c r="A93" s="111"/>
+      <c r="B93" s="112"/>
+      <c r="C93" s="112"/>
+      <c r="D93" s="112"/>
+      <c r="E93" s="112"/>
+      <c r="F93" s="112"/>
+      <c r="G93" s="112"/>
+      <c r="H93" s="112"/>
+      <c r="I93" s="112"/>
+      <c r="J93" s="112"/>
+      <c r="K93" s="112"/>
+      <c r="L93" s="112"/>
+      <c r="M93" s="113"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="108"/>
-      <c r="B94" s="109"/>
-      <c r="C94" s="109"/>
-      <c r="D94" s="109"/>
-      <c r="E94" s="109"/>
-      <c r="F94" s="109"/>
-      <c r="G94" s="109"/>
-      <c r="H94" s="109"/>
-      <c r="I94" s="109"/>
-      <c r="J94" s="109"/>
-      <c r="K94" s="109"/>
-      <c r="L94" s="109"/>
-      <c r="M94" s="110"/>
+      <c r="A94" s="111"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="112"/>
+      <c r="D94" s="112"/>
+      <c r="E94" s="112"/>
+      <c r="F94" s="112"/>
+      <c r="G94" s="112"/>
+      <c r="H94" s="112"/>
+      <c r="I94" s="112"/>
+      <c r="J94" s="112"/>
+      <c r="K94" s="112"/>
+      <c r="L94" s="112"/>
+      <c r="M94" s="113"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="108"/>
-      <c r="B95" s="109"/>
-      <c r="C95" s="109"/>
-      <c r="D95" s="109"/>
-      <c r="E95" s="109"/>
-      <c r="F95" s="109"/>
-      <c r="G95" s="109"/>
-      <c r="H95" s="109"/>
-      <c r="I95" s="109"/>
-      <c r="J95" s="109"/>
-      <c r="K95" s="109"/>
-      <c r="L95" s="109"/>
-      <c r="M95" s="110"/>
+      <c r="A95" s="111"/>
+      <c r="B95" s="112"/>
+      <c r="C95" s="112"/>
+      <c r="D95" s="112"/>
+      <c r="E95" s="112"/>
+      <c r="F95" s="112"/>
+      <c r="G95" s="112"/>
+      <c r="H95" s="112"/>
+      <c r="I95" s="112"/>
+      <c r="J95" s="112"/>
+      <c r="K95" s="112"/>
+      <c r="L95" s="112"/>
+      <c r="M95" s="113"/>
     </row>
     <row r="96" spans="1:13" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="111"/>
-      <c r="B96" s="112"/>
-      <c r="C96" s="112"/>
-      <c r="D96" s="112"/>
-      <c r="E96" s="112"/>
-      <c r="F96" s="112"/>
-      <c r="G96" s="112"/>
-      <c r="H96" s="112"/>
-      <c r="I96" s="112"/>
-      <c r="J96" s="112"/>
-      <c r="K96" s="112"/>
-      <c r="L96" s="112"/>
-      <c r="M96" s="113"/>
+      <c r="A96" s="114"/>
+      <c r="B96" s="115"/>
+      <c r="C96" s="115"/>
+      <c r="D96" s="115"/>
+      <c r="E96" s="115"/>
+      <c r="F96" s="115"/>
+      <c r="G96" s="115"/>
+      <c r="H96" s="115"/>
+      <c r="I96" s="115"/>
+      <c r="J96" s="115"/>
+      <c r="K96" s="115"/>
+      <c r="L96" s="115"/>
+      <c r="M96" s="116"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="114" t="s">
+      <c r="A97" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="114"/>
-      <c r="C97" s="114"/>
-      <c r="D97" s="114"/>
-      <c r="E97" s="114"/>
-      <c r="F97" s="114"/>
-      <c r="G97" s="114"/>
-      <c r="H97" s="114"/>
-      <c r="I97" s="114"/>
-      <c r="J97" s="114"/>
-      <c r="K97" s="114"/>
-      <c r="L97" s="114"/>
-      <c r="M97" s="114"/>
+      <c r="B97" s="110"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="110"/>
+      <c r="G97" s="110"/>
+      <c r="H97" s="110"/>
+      <c r="I97" s="110"/>
+      <c r="J97" s="110"/>
+      <c r="K97" s="110"/>
+      <c r="L97" s="110"/>
+      <c r="M97" s="110"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="108"/>
-      <c r="B98" s="109"/>
-      <c r="C98" s="109"/>
-      <c r="D98" s="109"/>
-      <c r="E98" s="109"/>
-      <c r="F98" s="109"/>
-      <c r="G98" s="109"/>
-      <c r="H98" s="109"/>
-      <c r="I98" s="109"/>
-      <c r="J98" s="109"/>
-      <c r="K98" s="109"/>
-      <c r="L98" s="109"/>
-      <c r="M98" s="110"/>
+      <c r="A98" s="111"/>
+      <c r="B98" s="112"/>
+      <c r="C98" s="112"/>
+      <c r="D98" s="112"/>
+      <c r="E98" s="112"/>
+      <c r="F98" s="112"/>
+      <c r="G98" s="112"/>
+      <c r="H98" s="112"/>
+      <c r="I98" s="112"/>
+      <c r="J98" s="112"/>
+      <c r="K98" s="112"/>
+      <c r="L98" s="112"/>
+      <c r="M98" s="113"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="108"/>
-      <c r="B99" s="109"/>
-      <c r="C99" s="109"/>
-      <c r="D99" s="109"/>
-      <c r="E99" s="109"/>
-      <c r="F99" s="109"/>
-      <c r="G99" s="109"/>
-      <c r="H99" s="109"/>
-      <c r="I99" s="109"/>
-      <c r="J99" s="109"/>
-      <c r="K99" s="109"/>
-      <c r="L99" s="109"/>
-      <c r="M99" s="110"/>
+      <c r="A99" s="111"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="113"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="108"/>
-      <c r="B100" s="109"/>
-      <c r="C100" s="109"/>
-      <c r="D100" s="109"/>
-      <c r="E100" s="109"/>
-      <c r="F100" s="109"/>
-      <c r="G100" s="109"/>
-      <c r="H100" s="109"/>
-      <c r="I100" s="109"/>
-      <c r="J100" s="109"/>
-      <c r="K100" s="109"/>
-      <c r="L100" s="109"/>
-      <c r="M100" s="110"/>
+      <c r="A100" s="111"/>
+      <c r="B100" s="112"/>
+      <c r="C100" s="112"/>
+      <c r="D100" s="112"/>
+      <c r="E100" s="112"/>
+      <c r="F100" s="112"/>
+      <c r="G100" s="112"/>
+      <c r="H100" s="112"/>
+      <c r="I100" s="112"/>
+      <c r="J100" s="112"/>
+      <c r="K100" s="112"/>
+      <c r="L100" s="112"/>
+      <c r="M100" s="113"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="108"/>
-      <c r="B101" s="109"/>
-      <c r="C101" s="109"/>
-      <c r="D101" s="109"/>
-      <c r="E101" s="109"/>
-      <c r="F101" s="109"/>
-      <c r="G101" s="109"/>
-      <c r="H101" s="109"/>
-      <c r="I101" s="109"/>
-      <c r="J101" s="109"/>
-      <c r="K101" s="109"/>
-      <c r="L101" s="109"/>
-      <c r="M101" s="110"/>
+      <c r="A101" s="111"/>
+      <c r="B101" s="112"/>
+      <c r="C101" s="112"/>
+      <c r="D101" s="112"/>
+      <c r="E101" s="112"/>
+      <c r="F101" s="112"/>
+      <c r="G101" s="112"/>
+      <c r="H101" s="112"/>
+      <c r="I101" s="112"/>
+      <c r="J101" s="112"/>
+      <c r="K101" s="112"/>
+      <c r="L101" s="112"/>
+      <c r="M101" s="113"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="108"/>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
-      <c r="G102" s="109"/>
-      <c r="H102" s="109"/>
-      <c r="I102" s="109"/>
-      <c r="J102" s="109"/>
-      <c r="K102" s="109"/>
-      <c r="L102" s="109"/>
-      <c r="M102" s="110"/>
+      <c r="A102" s="111"/>
+      <c r="B102" s="112"/>
+      <c r="C102" s="112"/>
+      <c r="D102" s="112"/>
+      <c r="E102" s="112"/>
+      <c r="F102" s="112"/>
+      <c r="G102" s="112"/>
+      <c r="H102" s="112"/>
+      <c r="I102" s="112"/>
+      <c r="J102" s="112"/>
+      <c r="K102" s="112"/>
+      <c r="L102" s="112"/>
+      <c r="M102" s="113"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="108"/>
-      <c r="B103" s="109"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
-      <c r="F103" s="109"/>
-      <c r="G103" s="109"/>
-      <c r="H103" s="109"/>
-      <c r="I103" s="109"/>
-      <c r="J103" s="109"/>
-      <c r="K103" s="109"/>
-      <c r="L103" s="109"/>
-      <c r="M103" s="110"/>
+      <c r="A103" s="111"/>
+      <c r="B103" s="112"/>
+      <c r="C103" s="112"/>
+      <c r="D103" s="112"/>
+      <c r="E103" s="112"/>
+      <c r="F103" s="112"/>
+      <c r="G103" s="112"/>
+      <c r="H103" s="112"/>
+      <c r="I103" s="112"/>
+      <c r="J103" s="112"/>
+      <c r="K103" s="112"/>
+      <c r="L103" s="112"/>
+      <c r="M103" s="113"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="108"/>
-      <c r="B104" s="109"/>
-      <c r="C104" s="109"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109"/>
-      <c r="F104" s="109"/>
-      <c r="G104" s="109"/>
-      <c r="H104" s="109"/>
-      <c r="I104" s="109"/>
-      <c r="J104" s="109"/>
-      <c r="K104" s="109"/>
-      <c r="L104" s="109"/>
-      <c r="M104" s="110"/>
+      <c r="A104" s="111"/>
+      <c r="B104" s="112"/>
+      <c r="C104" s="112"/>
+      <c r="D104" s="112"/>
+      <c r="E104" s="112"/>
+      <c r="F104" s="112"/>
+      <c r="G104" s="112"/>
+      <c r="H104" s="112"/>
+      <c r="I104" s="112"/>
+      <c r="J104" s="112"/>
+      <c r="K104" s="112"/>
+      <c r="L104" s="112"/>
+      <c r="M104" s="113"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="108"/>
-      <c r="B105" s="109"/>
-      <c r="C105" s="109"/>
-      <c r="D105" s="109"/>
-      <c r="E105" s="109"/>
-      <c r="F105" s="109"/>
-      <c r="G105" s="109"/>
-      <c r="H105" s="109"/>
-      <c r="I105" s="109"/>
-      <c r="J105" s="109"/>
-      <c r="K105" s="109"/>
-      <c r="L105" s="109"/>
-      <c r="M105" s="110"/>
+      <c r="A105" s="111"/>
+      <c r="B105" s="112"/>
+      <c r="C105" s="112"/>
+      <c r="D105" s="112"/>
+      <c r="E105" s="112"/>
+      <c r="F105" s="112"/>
+      <c r="G105" s="112"/>
+      <c r="H105" s="112"/>
+      <c r="I105" s="112"/>
+      <c r="J105" s="112"/>
+      <c r="K105" s="112"/>
+      <c r="L105" s="112"/>
+      <c r="M105" s="113"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="108"/>
-      <c r="B106" s="109"/>
-      <c r="C106" s="109"/>
-      <c r="D106" s="109"/>
-      <c r="E106" s="109"/>
-      <c r="F106" s="109"/>
-      <c r="G106" s="109"/>
-      <c r="H106" s="109"/>
-      <c r="I106" s="109"/>
-      <c r="J106" s="109"/>
-      <c r="K106" s="109"/>
-      <c r="L106" s="109"/>
-      <c r="M106" s="110"/>
+      <c r="A106" s="111"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="112"/>
+      <c r="E106" s="112"/>
+      <c r="F106" s="112"/>
+      <c r="G106" s="112"/>
+      <c r="H106" s="112"/>
+      <c r="I106" s="112"/>
+      <c r="J106" s="112"/>
+      <c r="K106" s="112"/>
+      <c r="L106" s="112"/>
+      <c r="M106" s="113"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="108"/>
-      <c r="B107" s="109"/>
-      <c r="C107" s="109"/>
-      <c r="D107" s="109"/>
-      <c r="E107" s="109"/>
-      <c r="F107" s="109"/>
-      <c r="G107" s="109"/>
-      <c r="H107" s="109"/>
-      <c r="I107" s="109"/>
-      <c r="J107" s="109"/>
-      <c r="K107" s="109"/>
-      <c r="L107" s="109"/>
-      <c r="M107" s="110"/>
+      <c r="A107" s="111"/>
+      <c r="B107" s="112"/>
+      <c r="C107" s="112"/>
+      <c r="D107" s="112"/>
+      <c r="E107" s="112"/>
+      <c r="F107" s="112"/>
+      <c r="G107" s="112"/>
+      <c r="H107" s="112"/>
+      <c r="I107" s="112"/>
+      <c r="J107" s="112"/>
+      <c r="K107" s="112"/>
+      <c r="L107" s="112"/>
+      <c r="M107" s="113"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="108"/>
-      <c r="B108" s="109"/>
-      <c r="C108" s="109"/>
-      <c r="D108" s="109"/>
-      <c r="E108" s="109"/>
-      <c r="F108" s="109"/>
-      <c r="G108" s="109"/>
-      <c r="H108" s="109"/>
-      <c r="I108" s="109"/>
-      <c r="J108" s="109"/>
-      <c r="K108" s="109"/>
-      <c r="L108" s="109"/>
-      <c r="M108" s="110"/>
+      <c r="A108" s="111"/>
+      <c r="B108" s="112"/>
+      <c r="C108" s="112"/>
+      <c r="D108" s="112"/>
+      <c r="E108" s="112"/>
+      <c r="F108" s="112"/>
+      <c r="G108" s="112"/>
+      <c r="H108" s="112"/>
+      <c r="I108" s="112"/>
+      <c r="J108" s="112"/>
+      <c r="K108" s="112"/>
+      <c r="L108" s="112"/>
+      <c r="M108" s="113"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="108"/>
-      <c r="B109" s="109"/>
-      <c r="C109" s="109"/>
-      <c r="D109" s="109"/>
-      <c r="E109" s="109"/>
-      <c r="F109" s="109"/>
-      <c r="G109" s="109"/>
-      <c r="H109" s="109"/>
-      <c r="I109" s="109"/>
-      <c r="J109" s="109"/>
-      <c r="K109" s="109"/>
-      <c r="L109" s="109"/>
-      <c r="M109" s="110"/>
+      <c r="A109" s="111"/>
+      <c r="B109" s="112"/>
+      <c r="C109" s="112"/>
+      <c r="D109" s="112"/>
+      <c r="E109" s="112"/>
+      <c r="F109" s="112"/>
+      <c r="G109" s="112"/>
+      <c r="H109" s="112"/>
+      <c r="I109" s="112"/>
+      <c r="J109" s="112"/>
+      <c r="K109" s="112"/>
+      <c r="L109" s="112"/>
+      <c r="M109" s="113"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="108"/>
-      <c r="B110" s="109"/>
-      <c r="C110" s="109"/>
-      <c r="D110" s="109"/>
-      <c r="E110" s="109"/>
-      <c r="F110" s="109"/>
-      <c r="G110" s="109"/>
-      <c r="H110" s="109"/>
-      <c r="I110" s="109"/>
-      <c r="J110" s="109"/>
-      <c r="K110" s="109"/>
-      <c r="L110" s="109"/>
-      <c r="M110" s="110"/>
+      <c r="A110" s="111"/>
+      <c r="B110" s="112"/>
+      <c r="C110" s="112"/>
+      <c r="D110" s="112"/>
+      <c r="E110" s="112"/>
+      <c r="F110" s="112"/>
+      <c r="G110" s="112"/>
+      <c r="H110" s="112"/>
+      <c r="I110" s="112"/>
+      <c r="J110" s="112"/>
+      <c r="K110" s="112"/>
+      <c r="L110" s="112"/>
+      <c r="M110" s="113"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="108"/>
-      <c r="B111" s="109"/>
-      <c r="C111" s="109"/>
-      <c r="D111" s="109"/>
-      <c r="E111" s="109"/>
-      <c r="F111" s="109"/>
-      <c r="G111" s="109"/>
-      <c r="H111" s="109"/>
-      <c r="I111" s="109"/>
-      <c r="J111" s="109"/>
-      <c r="K111" s="109"/>
-      <c r="L111" s="109"/>
-      <c r="M111" s="110"/>
+      <c r="A111" s="111"/>
+      <c r="B111" s="112"/>
+      <c r="C111" s="112"/>
+      <c r="D111" s="112"/>
+      <c r="E111" s="112"/>
+      <c r="F111" s="112"/>
+      <c r="G111" s="112"/>
+      <c r="H111" s="112"/>
+      <c r="I111" s="112"/>
+      <c r="J111" s="112"/>
+      <c r="K111" s="112"/>
+      <c r="L111" s="112"/>
+      <c r="M111" s="113"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="108"/>
-      <c r="B112" s="109"/>
-      <c r="C112" s="109"/>
-      <c r="D112" s="109"/>
-      <c r="E112" s="109"/>
-      <c r="F112" s="109"/>
-      <c r="G112" s="109"/>
-      <c r="H112" s="109"/>
-      <c r="I112" s="109"/>
-      <c r="J112" s="109"/>
-      <c r="K112" s="109"/>
-      <c r="L112" s="109"/>
-      <c r="M112" s="110"/>
+      <c r="A112" s="111"/>
+      <c r="B112" s="112"/>
+      <c r="C112" s="112"/>
+      <c r="D112" s="112"/>
+      <c r="E112" s="112"/>
+      <c r="F112" s="112"/>
+      <c r="G112" s="112"/>
+      <c r="H112" s="112"/>
+      <c r="I112" s="112"/>
+      <c r="J112" s="112"/>
+      <c r="K112" s="112"/>
+      <c r="L112" s="112"/>
+      <c r="M112" s="113"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="108"/>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
-      <c r="G113" s="109"/>
-      <c r="H113" s="109"/>
-      <c r="I113" s="109"/>
-      <c r="J113" s="109"/>
-      <c r="K113" s="109"/>
-      <c r="L113" s="109"/>
-      <c r="M113" s="110"/>
+      <c r="A113" s="111"/>
+      <c r="B113" s="112"/>
+      <c r="C113" s="112"/>
+      <c r="D113" s="112"/>
+      <c r="E113" s="112"/>
+      <c r="F113" s="112"/>
+      <c r="G113" s="112"/>
+      <c r="H113" s="112"/>
+      <c r="I113" s="112"/>
+      <c r="J113" s="112"/>
+      <c r="K113" s="112"/>
+      <c r="L113" s="112"/>
+      <c r="M113" s="113"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="108"/>
-      <c r="B114" s="109"/>
-      <c r="C114" s="109"/>
-      <c r="D114" s="109"/>
-      <c r="E114" s="109"/>
-      <c r="F114" s="109"/>
-      <c r="G114" s="109"/>
-      <c r="H114" s="109"/>
-      <c r="I114" s="109"/>
-      <c r="J114" s="109"/>
-      <c r="K114" s="109"/>
-      <c r="L114" s="109"/>
-      <c r="M114" s="110"/>
+      <c r="A114" s="111"/>
+      <c r="B114" s="112"/>
+      <c r="C114" s="112"/>
+      <c r="D114" s="112"/>
+      <c r="E114" s="112"/>
+      <c r="F114" s="112"/>
+      <c r="G114" s="112"/>
+      <c r="H114" s="112"/>
+      <c r="I114" s="112"/>
+      <c r="J114" s="112"/>
+      <c r="K114" s="112"/>
+      <c r="L114" s="112"/>
+      <c r="M114" s="113"/>
     </row>
     <row r="115" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="111"/>
-      <c r="B115" s="112"/>
-      <c r="C115" s="112"/>
-      <c r="D115" s="112"/>
-      <c r="E115" s="112"/>
-      <c r="F115" s="112"/>
-      <c r="G115" s="112"/>
-      <c r="H115" s="112"/>
-      <c r="I115" s="112"/>
-      <c r="J115" s="112"/>
-      <c r="K115" s="112"/>
-      <c r="L115" s="112"/>
-      <c r="M115" s="113"/>
+      <c r="A115" s="114"/>
+      <c r="B115" s="115"/>
+      <c r="C115" s="115"/>
+      <c r="D115" s="115"/>
+      <c r="E115" s="115"/>
+      <c r="F115" s="115"/>
+      <c r="G115" s="115"/>
+      <c r="H115" s="115"/>
+      <c r="I115" s="115"/>
+      <c r="J115" s="115"/>
+      <c r="K115" s="115"/>
+      <c r="L115" s="115"/>
+      <c r="M115" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:M20"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A22:M39"/>
-    <mergeCell ref="A40:M40"/>
-    <mergeCell ref="A41:M58"/>
     <mergeCell ref="A98:M115"/>
     <mergeCell ref="A21:M21"/>
     <mergeCell ref="A59:M59"/>
@@ -13892,6 +13890,11 @@
     <mergeCell ref="A78:M78"/>
     <mergeCell ref="A79:M96"/>
     <mergeCell ref="A97:M97"/>
+    <mergeCell ref="A2:M20"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A22:M39"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A41:M58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13914,12 +13917,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="138" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
       <c r="E1" s="13"/>
       <c r="F1" s="59"/>
       <c r="G1" s="59"/>
@@ -13929,12 +13932,12 @@
       <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -14011,10 +14014,10 @@
       <c r="B6" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="118"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -14072,10 +14075,10 @@
       <c r="B9" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="120"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="13"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -14085,16 +14088,16 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="125"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="13"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -14104,10 +14107,10 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="127"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -14117,16 +14120,16 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="129"/>
+      <c r="D12" s="143"/>
       <c r="E12" s="13"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -14136,12 +14139,12 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="131"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="118" t="s">
+      <c r="A13" s="145"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="118"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -14151,16 +14154,16 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="125"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -14170,10 +14173,10 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -14229,10 +14232,10 @@
       <c r="B19" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="118"/>
+      <c r="D19" s="121"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
@@ -14241,10 +14244,10 @@
       <c r="B20" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="118"/>
+      <c r="D20" s="121"/>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
@@ -14253,10 +14256,10 @@
       <c r="B21" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="118"/>
+      <c r="D21" s="121"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
@@ -14305,10 +14308,10 @@
       <c r="B25" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="C25" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="118"/>
+      <c r="D25" s="121"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
@@ -14317,10 +14320,10 @@
       <c r="B26" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="118"/>
+      <c r="D26" s="121"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
@@ -14369,10 +14372,10 @@
       <c r="B30" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="134" t="s">
+      <c r="C30" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="134"/>
+      <c r="D30" s="118"/>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -14381,10 +14384,10 @@
       <c r="B31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="134" t="s">
+      <c r="C31" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="134"/>
+      <c r="D31" s="118"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
@@ -14433,10 +14436,10 @@
       <c r="B35" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="134" t="s">
+      <c r="C35" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="134"/>
+      <c r="D35" s="118"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
@@ -14445,10 +14448,10 @@
       <c r="B36" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="135" t="s">
+      <c r="C36" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="136"/>
+      <c r="D36" s="120"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
@@ -14497,10 +14500,10 @@
       <c r="B40" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="134"/>
+      <c r="D40" s="118"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
@@ -14549,26 +14552,26 @@
       <c r="B44" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="134" t="s">
+      <c r="C44" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="134"/>
+      <c r="D44" s="118"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="116" t="s">
+      <c r="A47" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="121" t="s">
+      <c r="A48" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="122"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="141"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
@@ -14617,10 +14620,10 @@
       <c r="B52" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="118" t="s">
+      <c r="C52" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="D52" s="118"/>
+      <c r="D52" s="121"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
@@ -14657,66 +14660,66 @@
       <c r="B55" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="120"/>
+      <c r="D55" s="131"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="119" t="s">
+      <c r="A56" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="118" t="s">
+      <c r="B56" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="124" t="s">
+      <c r="C56" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="125"/>
+      <c r="D56" s="133"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="119"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="127"/>
+      <c r="A57" s="130"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="135"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="119" t="s">
+      <c r="A58" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="132" t="s">
+      <c r="B58" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="124" t="s">
+      <c r="C58" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="125"/>
+      <c r="D58" s="133"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="119"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="127"/>
+      <c r="A59" s="130"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="135"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="119" t="s">
+      <c r="A60" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="118" t="s">
+      <c r="B60" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="118" t="s">
+      <c r="C60" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="118"/>
+      <c r="D60" s="121"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="119"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118" t="s">
+      <c r="A61" s="130"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="118"/>
+      <c r="D61" s="121"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="58" t="s">
@@ -14765,10 +14768,10 @@
       <c r="B65" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="135" t="s">
+      <c r="C65" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="136"/>
+      <c r="D65" s="120"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="58" t="s">
@@ -14817,10 +14820,10 @@
       <c r="B69" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="118" t="s">
+      <c r="C69" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="118"/>
+      <c r="D69" s="121"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="55" t="s">
@@ -14829,10 +14832,10 @@
       <c r="B70" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="118" t="s">
+      <c r="C70" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="118"/>
+      <c r="D70" s="121"/>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="55" t="s">
@@ -14841,10 +14844,10 @@
       <c r="B71" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="118" t="s">
+      <c r="C71" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="118"/>
+      <c r="D71" s="121"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="58" t="s">
@@ -14893,10 +14896,10 @@
       <c r="B75" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C75" s="118" t="s">
+      <c r="C75" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="D75" s="118"/>
+      <c r="D75" s="121"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="s">
@@ -14905,10 +14908,10 @@
       <c r="B76" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="118" t="s">
+      <c r="C76" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="D76" s="118"/>
+      <c r="D76" s="121"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="58" t="s">
@@ -14957,28 +14960,28 @@
       <c r="B80" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="134" t="s">
+      <c r="C80" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="D80" s="134"/>
+      <c r="D80" s="118"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="137" t="s">
+      <c r="A81" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="139" t="s">
+      <c r="B81" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="141" t="s">
+      <c r="C81" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="142"/>
+      <c r="D81" s="127"/>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="138"/>
-      <c r="B82" s="140"/>
-      <c r="C82" s="143"/>
-      <c r="D82" s="144"/>
+      <c r="A82" s="123"/>
+      <c r="B82" s="125"/>
+      <c r="C82" s="128"/>
+      <c r="D82" s="129"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="58" t="s">
@@ -15027,10 +15030,10 @@
       <c r="B86" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="134" t="s">
+      <c r="C86" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="D86" s="134"/>
+      <c r="D86" s="118"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
@@ -15039,10 +15042,10 @@
       <c r="B87" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="135" t="s">
+      <c r="C87" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="D87" s="136"/>
+      <c r="D87" s="120"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="58" t="s">
@@ -15091,10 +15094,10 @@
       <c r="B91" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="134" t="s">
+      <c r="C91" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="D91" s="134"/>
+      <c r="D91" s="118"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="58" t="s">
@@ -15143,26 +15146,26 @@
       <c r="B95" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C95" s="134" t="s">
+      <c r="C95" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D95" s="134"/>
+      <c r="D95" s="118"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="116" t="s">
+      <c r="A98" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="B98" s="116"/>
-      <c r="C98" s="116"/>
-      <c r="D98" s="116"/>
+      <c r="B98" s="138"/>
+      <c r="C98" s="138"/>
+      <c r="D98" s="138"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="121" t="s">
+      <c r="A99" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="B99" s="122"/>
-      <c r="C99" s="122"/>
-      <c r="D99" s="123"/>
+      <c r="B99" s="140"/>
+      <c r="C99" s="140"/>
+      <c r="D99" s="141"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="54" t="s">
@@ -15211,10 +15214,10 @@
       <c r="B103" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C103" s="118" t="s">
+      <c r="C103" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="D103" s="118"/>
+      <c r="D103" s="121"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="58" t="s">
@@ -15251,66 +15254,66 @@
       <c r="B106" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C106" s="120" t="s">
+      <c r="C106" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="D106" s="120"/>
+      <c r="D106" s="131"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="119" t="s">
+      <c r="A107" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="118" t="s">
+      <c r="B107" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="C107" s="124" t="s">
+      <c r="C107" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="D107" s="125"/>
+      <c r="D107" s="133"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="119"/>
-      <c r="B108" s="118"/>
-      <c r="C108" s="126"/>
-      <c r="D108" s="127"/>
+      <c r="A108" s="130"/>
+      <c r="B108" s="121"/>
+      <c r="C108" s="134"/>
+      <c r="D108" s="135"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="119" t="s">
+      <c r="A109" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="B109" s="132" t="s">
+      <c r="B109" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="124" t="s">
+      <c r="C109" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="D109" s="125"/>
+      <c r="D109" s="133"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="119"/>
-      <c r="B110" s="133"/>
-      <c r="C110" s="126"/>
-      <c r="D110" s="127"/>
+      <c r="A110" s="130"/>
+      <c r="B110" s="137"/>
+      <c r="C110" s="134"/>
+      <c r="D110" s="135"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="119" t="s">
+      <c r="A111" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B111" s="118" t="s">
+      <c r="B111" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="C111" s="118" t="s">
+      <c r="C111" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="118"/>
+      <c r="D111" s="121"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="119"/>
-      <c r="B112" s="118"/>
-      <c r="C112" s="118" t="s">
+      <c r="A112" s="130"/>
+      <c r="B112" s="121"/>
+      <c r="C112" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="118"/>
+      <c r="D112" s="121"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="58" t="s">
@@ -15359,10 +15362,10 @@
       <c r="B116" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C116" s="135" t="s">
+      <c r="C116" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="D116" s="136"/>
+      <c r="D116" s="120"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="58" t="s">
@@ -15411,10 +15414,10 @@
       <c r="B120" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C120" s="118" t="s">
+      <c r="C120" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D120" s="118"/>
+      <c r="D120" s="121"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="55" t="s">
@@ -15423,10 +15426,10 @@
       <c r="B121" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C121" s="118" t="s">
+      <c r="C121" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="D121" s="118"/>
+      <c r="D121" s="121"/>
     </row>
     <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="55" t="s">
@@ -15435,10 +15438,10 @@
       <c r="B122" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C122" s="118" t="s">
+      <c r="C122" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="D122" s="118"/>
+      <c r="D122" s="121"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="58" t="s">
@@ -15487,10 +15490,10 @@
       <c r="B126" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C126" s="118" t="s">
+      <c r="C126" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="D126" s="118"/>
+      <c r="D126" s="121"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="55" t="s">
@@ -15499,10 +15502,10 @@
       <c r="B127" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="118" t="s">
+      <c r="C127" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="D127" s="118"/>
+      <c r="D127" s="121"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="58" t="s">
@@ -15551,28 +15554,28 @@
       <c r="B131" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C131" s="134" t="s">
+      <c r="C131" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="D131" s="134"/>
+      <c r="D131" s="118"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="137" t="s">
+      <c r="A132" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="B132" s="139" t="s">
+      <c r="B132" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C132" s="141" t="s">
+      <c r="C132" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="D132" s="142"/>
+      <c r="D132" s="127"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="138"/>
-      <c r="B133" s="140"/>
-      <c r="C133" s="143"/>
-      <c r="D133" s="144"/>
+      <c r="A133" s="123"/>
+      <c r="B133" s="125"/>
+      <c r="C133" s="128"/>
+      <c r="D133" s="129"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="58" t="s">
@@ -15621,10 +15624,10 @@
       <c r="B137" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C137" s="134" t="s">
+      <c r="C137" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="D137" s="134"/>
+      <c r="D137" s="118"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
@@ -15633,10 +15636,10 @@
       <c r="B138" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="135" t="s">
+      <c r="C138" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="D138" s="136"/>
+      <c r="D138" s="120"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="58" t="s">
@@ -15685,10 +15688,10 @@
       <c r="B142" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C142" s="134" t="s">
+      <c r="C142" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="D142" s="134"/>
+      <c r="D142" s="118"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="58" t="s">
@@ -15737,26 +15740,26 @@
       <c r="B146" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C146" s="134" t="s">
+      <c r="C146" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D146" s="134"/>
+      <c r="D146" s="118"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="116" t="s">
+      <c r="A149" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="B149" s="116"/>
-      <c r="C149" s="116"/>
-      <c r="D149" s="116"/>
+      <c r="B149" s="138"/>
+      <c r="C149" s="138"/>
+      <c r="D149" s="138"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="121" t="s">
+      <c r="A150" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="B150" s="122"/>
-      <c r="C150" s="122"/>
-      <c r="D150" s="123"/>
+      <c r="B150" s="140"/>
+      <c r="C150" s="140"/>
+      <c r="D150" s="141"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="54" t="s">
@@ -15805,10 +15808,10 @@
       <c r="B154" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C154" s="118" t="s">
+      <c r="C154" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="D154" s="118"/>
+      <c r="D154" s="121"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="58" t="s">
@@ -15845,66 +15848,66 @@
       <c r="B157" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C157" s="120" t="s">
+      <c r="C157" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="D157" s="120"/>
+      <c r="D157" s="131"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="119" t="s">
+      <c r="A158" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B158" s="118" t="s">
+      <c r="B158" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="C158" s="124" t="s">
+      <c r="C158" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="D158" s="125"/>
+      <c r="D158" s="133"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="119"/>
-      <c r="B159" s="118"/>
-      <c r="C159" s="126"/>
-      <c r="D159" s="127"/>
+      <c r="A159" s="130"/>
+      <c r="B159" s="121"/>
+      <c r="C159" s="134"/>
+      <c r="D159" s="135"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="119" t="s">
+      <c r="A160" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="B160" s="132" t="s">
+      <c r="B160" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="C160" s="124" t="s">
+      <c r="C160" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="D160" s="125"/>
+      <c r="D160" s="133"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="119"/>
-      <c r="B161" s="133"/>
-      <c r="C161" s="126"/>
-      <c r="D161" s="127"/>
+      <c r="A161" s="130"/>
+      <c r="B161" s="137"/>
+      <c r="C161" s="134"/>
+      <c r="D161" s="135"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="119" t="s">
+      <c r="A162" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B162" s="118" t="s">
+      <c r="B162" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="C162" s="118" t="s">
+      <c r="C162" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="D162" s="118"/>
+      <c r="D162" s="121"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="119"/>
-      <c r="B163" s="118"/>
-      <c r="C163" s="118" t="s">
+      <c r="A163" s="130"/>
+      <c r="B163" s="121"/>
+      <c r="C163" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="118"/>
+      <c r="D163" s="121"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="58" t="s">
@@ -15953,10 +15956,10 @@
       <c r="B167" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C167" s="118" t="s">
+      <c r="C167" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D167" s="118"/>
+      <c r="D167" s="121"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="55" t="s">
@@ -15965,10 +15968,10 @@
       <c r="B168" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C168" s="118" t="s">
+      <c r="C168" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="D168" s="118"/>
+      <c r="D168" s="121"/>
     </row>
     <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="55" t="s">
@@ -15977,10 +15980,10 @@
       <c r="B169" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="118" t="s">
+      <c r="C169" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="D169" s="118"/>
+      <c r="D169" s="121"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="58" t="s">
@@ -16029,10 +16032,10 @@
       <c r="B173" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C173" s="118" t="s">
+      <c r="C173" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="D173" s="118"/>
+      <c r="D173" s="121"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="55" t="s">
@@ -16041,10 +16044,10 @@
       <c r="B174" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="118" t="s">
+      <c r="C174" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="D174" s="118"/>
+      <c r="D174" s="121"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="58" t="s">
@@ -16093,28 +16096,28 @@
       <c r="B178" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C178" s="134" t="s">
+      <c r="C178" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="D178" s="134"/>
+      <c r="D178" s="118"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="137" t="s">
+      <c r="A179" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="B179" s="139" t="s">
+      <c r="B179" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C179" s="141" t="s">
+      <c r="C179" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="D179" s="142"/>
+      <c r="D179" s="127"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="138"/>
-      <c r="B180" s="140"/>
-      <c r="C180" s="143"/>
-      <c r="D180" s="144"/>
+      <c r="A180" s="123"/>
+      <c r="B180" s="125"/>
+      <c r="C180" s="128"/>
+      <c r="D180" s="129"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="58" t="s">
@@ -16163,10 +16166,10 @@
       <c r="B184" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C184" s="134" t="s">
+      <c r="C184" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="D184" s="134"/>
+      <c r="D184" s="118"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
@@ -16175,10 +16178,10 @@
       <c r="B185" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C185" s="135" t="s">
+      <c r="C185" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="D185" s="136"/>
+      <c r="D185" s="120"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="58" t="s">
@@ -16227,10 +16230,10 @@
       <c r="B189" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C189" s="134" t="s">
+      <c r="C189" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="D189" s="134"/>
+      <c r="D189" s="118"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="58" t="s">
@@ -16279,26 +16282,26 @@
       <c r="B193" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C193" s="134" t="s">
+      <c r="C193" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D193" s="134"/>
+      <c r="D193" s="118"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="116" t="s">
+      <c r="A196" s="138" t="s">
         <v>181</v>
       </c>
-      <c r="B196" s="116"/>
-      <c r="C196" s="116"/>
-      <c r="D196" s="116"/>
+      <c r="B196" s="138"/>
+      <c r="C196" s="138"/>
+      <c r="D196" s="138"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="121" t="s">
+      <c r="A197" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="B197" s="122"/>
-      <c r="C197" s="122"/>
-      <c r="D197" s="123"/>
+      <c r="B197" s="140"/>
+      <c r="C197" s="140"/>
+      <c r="D197" s="141"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="54" t="s">
@@ -16347,10 +16350,10 @@
       <c r="B201" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C201" s="118" t="s">
+      <c r="C201" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="D201" s="118"/>
+      <c r="D201" s="121"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="58" t="s">
@@ -16387,66 +16390,66 @@
       <c r="B204" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C204" s="120" t="s">
+      <c r="C204" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="D204" s="120"/>
+      <c r="D204" s="131"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="119" t="s">
+      <c r="A205" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B205" s="118" t="s">
+      <c r="B205" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="C205" s="124" t="s">
+      <c r="C205" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="D205" s="125"/>
+      <c r="D205" s="133"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="119"/>
-      <c r="B206" s="118"/>
-      <c r="C206" s="126"/>
-      <c r="D206" s="127"/>
+      <c r="A206" s="130"/>
+      <c r="B206" s="121"/>
+      <c r="C206" s="134"/>
+      <c r="D206" s="135"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="119" t="s">
+      <c r="A207" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="B207" s="132" t="s">
+      <c r="B207" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="C207" s="124" t="s">
+      <c r="C207" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="D207" s="125"/>
+      <c r="D207" s="133"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="119"/>
-      <c r="B208" s="133"/>
-      <c r="C208" s="126"/>
-      <c r="D208" s="127"/>
+      <c r="A208" s="130"/>
+      <c r="B208" s="137"/>
+      <c r="C208" s="134"/>
+      <c r="D208" s="135"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="119" t="s">
+      <c r="A209" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B209" s="118" t="s">
+      <c r="B209" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="C209" s="118" t="s">
+      <c r="C209" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="D209" s="118"/>
+      <c r="D209" s="121"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="119"/>
-      <c r="B210" s="118"/>
-      <c r="C210" s="118" t="s">
+      <c r="A210" s="130"/>
+      <c r="B210" s="121"/>
+      <c r="C210" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D210" s="118"/>
+      <c r="D210" s="121"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="58" t="s">
@@ -16495,10 +16498,10 @@
       <c r="B214" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C214" s="118" t="s">
+      <c r="C214" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D214" s="118"/>
+      <c r="D214" s="121"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="55" t="s">
@@ -16507,10 +16510,10 @@
       <c r="B215" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C215" s="118" t="s">
+      <c r="C215" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="D215" s="118"/>
+      <c r="D215" s="121"/>
     </row>
     <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="55" t="s">
@@ -16519,10 +16522,10 @@
       <c r="B216" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C216" s="118" t="s">
+      <c r="C216" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="D216" s="118"/>
+      <c r="D216" s="121"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="58" t="s">
@@ -16571,10 +16574,10 @@
       <c r="B220" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C220" s="118" t="s">
+      <c r="C220" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="D220" s="118"/>
+      <c r="D220" s="121"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="55" t="s">
@@ -16583,10 +16586,10 @@
       <c r="B221" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C221" s="118" t="s">
+      <c r="C221" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="D221" s="118"/>
+      <c r="D221" s="121"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="58" t="s">
@@ -16635,28 +16638,28 @@
       <c r="B225" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C225" s="134" t="s">
+      <c r="C225" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="D225" s="134"/>
+      <c r="D225" s="118"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="137" t="s">
+      <c r="A226" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="B226" s="139" t="s">
+      <c r="B226" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C226" s="141" t="s">
+      <c r="C226" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="D226" s="142"/>
+      <c r="D226" s="127"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="138"/>
-      <c r="B227" s="140"/>
-      <c r="C227" s="143"/>
-      <c r="D227" s="144"/>
+      <c r="A227" s="123"/>
+      <c r="B227" s="125"/>
+      <c r="C227" s="128"/>
+      <c r="D227" s="129"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="58" t="s">
@@ -16705,10 +16708,10 @@
       <c r="B231" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C231" s="134" t="s">
+      <c r="C231" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="D231" s="134"/>
+      <c r="D231" s="118"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
@@ -16717,10 +16720,10 @@
       <c r="B232" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C232" s="135" t="s">
+      <c r="C232" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="D232" s="136"/>
+      <c r="D232" s="120"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="58" t="s">
@@ -16769,10 +16772,10 @@
       <c r="B236" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C236" s="134" t="s">
+      <c r="C236" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="D236" s="134"/>
+      <c r="D236" s="118"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="58" t="s">
@@ -16821,23 +16824,162 @@
       <c r="B240" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C240" s="134" t="s">
+      <c r="C240" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D240" s="134"/>
+      <c r="D240" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="172">
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C230:D230"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C221:D221"/>
-    <mergeCell ref="C224:D224"/>
-    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:D133"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:D159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:D161"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:D180"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:D206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:D208"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
     <mergeCell ref="A226:A227"/>
     <mergeCell ref="B226:B227"/>
     <mergeCell ref="C226:D227"/>
@@ -16851,155 +16993,16 @@
     <mergeCell ref="C209:D209"/>
     <mergeCell ref="C210:D210"/>
     <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:D206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:D208"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="A196:D196"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:D180"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:D159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:D161"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:D133"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C230:D230"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="C224:D224"/>
+    <mergeCell ref="C225:D225"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -17023,15 +17026,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -17161,7 +17164,7 @@
       <c r="D7" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="145" t="s">
+      <c r="E7" s="69" t="s">
         <v>189</v>
       </c>
       <c r="F7" s="62" t="s">
@@ -17241,15 +17244,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
@@ -17402,7 +17405,7 @@
       <c r="D20" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="145" t="s">
+      <c r="E20" s="69" t="s">
         <v>189</v>
       </c>
       <c r="F20" s="62" t="s">
@@ -17491,15 +17494,15 @@
       <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
@@ -17652,7 +17655,7 @@
       <c r="D33" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="145" t="s">
+      <c r="E33" s="69" t="s">
         <v>189</v>
       </c>
       <c r="F33" s="62" t="s">
@@ -17750,15 +17753,15 @@
       <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -17888,7 +17891,7 @@
       <c r="D45" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="145" t="s">
+      <c r="E45" s="69" t="s">
         <v>189</v>
       </c>
       <c r="F45" s="62" t="s">
@@ -17986,15 +17989,15 @@
       <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -18124,7 +18127,7 @@
       <c r="D57" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="145" t="s">
+      <c r="E57" s="69" t="s">
         <v>189</v>
       </c>
       <c r="F57" s="62" t="s">
